--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-200084.3092377632</v>
+        <v>-202565.2290632226</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834738</v>
+        <v>10721426.73834739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.805049859360849</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851354</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663271</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001941</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65678318579945</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104932</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>79.28862487468155</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830085</v>
+        <v>300.8321118830084</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.49487117896651</v>
+        <v>21.34103851095697</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271166</v>
+        <v>69.43227382271158</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292091</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494646</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E14" t="n">
-        <v>330.2700806160751</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104944</v>
+        <v>82.26761520104934</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830084</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>30.24144032428411</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.04925399176652</v>
       </c>
       <c r="I16" t="n">
-        <v>52.50192207076953</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292083</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494646</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
         <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>107.6087327146488</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727501</v>
+        <v>273.4218632534963</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3426554503346</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290887</v>
+        <v>155.7512320878716</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249339</v>
+        <v>74.72018981249333</v>
       </c>
       <c r="E19" t="n">
-        <v>72.5386794408502</v>
+        <v>72.53867944085015</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721222</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330926</v>
+        <v>92.1305250533092</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860181</v>
+        <v>70.85973170860176</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411913</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432836</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2056,7 +2056,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2065,10 +2065,10 @@
         <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.0890643413378</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11.07891872681483</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.099888753183</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>253.856975264416</v>
+        <v>97.90474570419543</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503346</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290881</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249339</v>
+        <v>74.72018981249333</v>
       </c>
       <c r="E22" t="n">
-        <v>72.5386794408502</v>
+        <v>72.53867944085015</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721222</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330926</v>
+        <v>92.1305250533092</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860181</v>
+        <v>133.2594259035644</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411914</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.43656365928989</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
@@ -2293,7 +2293,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245688</v>
+        <v>35.29247858245677</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116941</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290877</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249339</v>
+        <v>74.72018981249329</v>
       </c>
       <c r="E25" t="n">
-        <v>72.5386794408502</v>
+        <v>72.5386794408501</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721218</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330926</v>
+        <v>92.13052505330916</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860181</v>
+        <v>70.85973170860171</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411914</v>
+        <v>22.45713720411903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432838</v>
+        <v>15.03686946432826</v>
       </c>
       <c r="S25" t="n">
-        <v>178.273436320685</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.242360118109</v>
+        <v>240.6420543130729</v>
       </c>
       <c r="W25" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247658</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3010,7 +3010,7 @@
         <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179992</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3266,7 +3266,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
         <v>256.998321392578</v>
@@ -3275,13 +3275,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007083</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>90.95618068285796</v>
+        <v>99.7087482409153</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239898</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383239</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052293</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010745</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846426</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482634</v>
       </c>
       <c r="G40" t="n">
-        <v>68.3410880309232</v>
+        <v>110.5480262953164</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621576</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.20693826439391</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>125.6864980364931</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C43" t="n">
         <v>69.56210087052281</v>
@@ -3910,13 +3910,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>205.4124289181749</v>
       </c>
       <c r="W43" t="n">
         <v>188.838278108486</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052281</v>
+        <v>111.7690391349167</v>
       </c>
       <c r="D46" t="n">
         <v>50.93075279010733</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
-        <v>205.4124289181746</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1798.247686674403</v>
+        <v>1823.749336508872</v>
       </c>
       <c r="C11" t="n">
-        <v>1798.247686674403</v>
+        <v>1481.978886828184</v>
       </c>
       <c r="D11" t="n">
-        <v>1467.174055327377</v>
+        <v>1481.978886828184</v>
       </c>
       <c r="E11" t="n">
-        <v>1108.577869988856</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F11" t="n">
-        <v>724.7840324589722</v>
+        <v>739.5888639597798</v>
       </c>
       <c r="G11" t="n">
-        <v>336.9036495636926</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31694793299094</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3146.820141253117</v>
+        <v>3162.417700320554</v>
       </c>
       <c r="U11" t="n">
-        <v>3146.820141253117</v>
+        <v>3162.417700320554</v>
       </c>
       <c r="V11" t="n">
-        <v>2842.94932116927</v>
+        <v>2858.546880236707</v>
       </c>
       <c r="W11" t="n">
-        <v>2517.372733158879</v>
+        <v>2532.970292226316</v>
       </c>
       <c r="X11" t="n">
-        <v>2171.099042157523</v>
+        <v>2186.69660122496</v>
       </c>
       <c r="Y11" t="n">
-        <v>1808.151777441435</v>
+        <v>1823.749336508872</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>537.9257309102735</v>
+        <v>778.3446374711291</v>
       </c>
       <c r="C13" t="n">
-        <v>396.1816152420903</v>
+        <v>636.600521802946</v>
       </c>
       <c r="D13" t="n">
-        <v>396.1816152420903</v>
+        <v>636.600521802946</v>
       </c>
       <c r="E13" t="n">
-        <v>396.1816152420903</v>
+        <v>515.8794954802767</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420903</v>
+        <v>396.1816152420901</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765329</v>
+        <v>255.6708458765328</v>
       </c>
       <c r="H13" t="n">
         <v>136.6457263541143</v>
@@ -5197,13 +5197,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402569</v>
+        <v>712.1345656402572</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,37 +5212,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784765</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058535</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075785</v>
+        <v>2140.502109058535</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162335</v>
+        <v>2140.502109058535</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991585</v>
+        <v>1945.927560887784</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.884554376953</v>
+        <v>1684.016761273152</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.392133430789</v>
+        <v>1456.524340326989</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1670306535519</v>
+        <v>1194.299237549752</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3695470152583</v>
+        <v>993.501753911458</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7690351314518</v>
+        <v>799.9012420276513</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2115.028093053011</v>
+        <v>2140.018136355091</v>
       </c>
       <c r="C14" t="n">
-        <v>1773.257643372323</v>
+        <v>1798.247686674403</v>
       </c>
       <c r="D14" t="n">
-        <v>1442.184012025296</v>
+        <v>1467.174055327377</v>
       </c>
       <c r="E14" t="n">
         <v>1108.577869988856</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7840324589725</v>
+        <v>724.7840324589724</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636927</v>
+        <v>336.9036495636925</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
@@ -5285,43 +5285,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395991</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039937</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573498</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V14" t="n">
-        <v>2837.383130573498</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W14" t="n">
-        <v>2837.383130573498</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="X14" t="n">
-        <v>2837.383130573498</v>
+        <v>2502.965401071179</v>
       </c>
       <c r="Y14" t="n">
-        <v>2474.435865857409</v>
+        <v>2140.018136355091</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>645.4448444571344</v>
+        <v>418.3126375609367</v>
       </c>
       <c r="C16" t="n">
-        <v>503.7007287889513</v>
+        <v>418.3126375609367</v>
       </c>
       <c r="D16" t="n">
-        <v>380.7761566363392</v>
+        <v>295.3880654083247</v>
       </c>
       <c r="E16" t="n">
-        <v>260.0551303136697</v>
+        <v>295.3880654083247</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0551303136697</v>
+        <v>295.3880654083247</v>
       </c>
       <c r="G16" t="n">
-        <v>119.5443609481123</v>
+        <v>154.8772960427674</v>
       </c>
       <c r="H16" t="n">
-        <v>119.5443609481123</v>
+        <v>136.6457263541143</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.285694000374</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705055</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402567</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,7 +5449,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S16" t="n">
-        <v>2140.502109058534</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
-        <v>1945.927560887783</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U16" t="n">
-        <v>1684.016761273151</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1456.524340326988</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W16" t="n">
-        <v>1194.299237549751</v>
+        <v>967.1670306535531</v>
       </c>
       <c r="X16" t="n">
-        <v>993.5017539114569</v>
+        <v>766.3695470152589</v>
       </c>
       <c r="Y16" t="n">
-        <v>799.9012420276505</v>
+        <v>572.7690351314526</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666653</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934038</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535084</v>
+        <v>1277.375523535083</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446367</v>
+        <v>966.2289711446361</v>
       </c>
       <c r="F17" t="n">
-        <v>629.884766562826</v>
+        <v>629.8847665628256</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156193</v>
+        <v>289.4540166156192</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3194.269774201189</v>
       </c>
       <c r="U17" t="n">
-        <v>3146.717045090804</v>
+        <v>3015.380997682822</v>
       </c>
       <c r="V17" t="n">
-        <v>2890.29585795503</v>
+        <v>2758.959810547048</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.600168344275</v>
+        <v>2758.959810547048</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.776110290992</v>
+        <v>2482.776110290991</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.278478522977</v>
+        <v>2167.278478522976</v>
       </c>
     </row>
     <row r="18">
@@ -5583,28 +5583,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872288</v>
+        <v>632.1517731235544</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671189</v>
+        <v>474.8272962671185</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625801</v>
+        <v>399.3523570625798</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879839</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978705</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803864</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604113</v>
+        <v>89.19609340604106</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,13 +5692,13 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T19" t="n">
         <v>1647.936691865764</v>
@@ -5710,13 +5710,13 @@
         <v>1253.432737201114</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.65726737195</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X19" t="n">
-        <v>885.30941668173</v>
+        <v>885.3094166817302</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096716</v>
+        <v>739.1585377459971</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>1855.320338666652</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934038</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D20" t="n">
         <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446367</v>
+        <v>966.2289711446363</v>
       </c>
       <c r="F20" t="n">
-        <v>629.884766562826</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156193</v>
@@ -5750,10 +5750,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T20" t="n">
-        <v>3194.26977420119</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>3015.380997682823</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="V20" t="n">
-        <v>2758.959810547049</v>
+        <v>3059.727123406591</v>
       </c>
       <c r="W20" t="n">
-        <v>2480.832855484732</v>
+        <v>2781.600168344274</v>
       </c>
       <c r="X20" t="n">
-        <v>2182.008797431449</v>
+        <v>2482.776110290991</v>
       </c>
       <c r="Y20" t="n">
-        <v>1866.511165663434</v>
+        <v>2167.278478522977</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872289</v>
+        <v>632.1517731235544</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671189</v>
+        <v>537.8572904034445</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625802</v>
+        <v>462.3823511989058</v>
       </c>
       <c r="E22" t="n">
-        <v>326.080963687984</v>
+        <v>389.1109578243097</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978705</v>
+        <v>316.8627105341963</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803864</v>
+        <v>223.8015741167123</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604114</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
@@ -5932,28 +5932,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1849.075796917492</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.031612952116</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729439</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062879</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064789</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356254</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454049</v>
+        <v>885.3094166817302</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096717</v>
+        <v>739.1585377459971</v>
       </c>
     </row>
     <row r="23">
@@ -5972,46 +5972,46 @@
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349359</v>
+        <v>973.0946095349361</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531253</v>
+        <v>636.7504049531256</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059183</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713542</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391687</v>
+        <v>1851.999402842084</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.42119445047</v>
+        <v>2398.778219900867</v>
       </c>
       <c r="O23" t="n">
-        <v>2630.393665329806</v>
+        <v>2901.750690780204</v>
       </c>
       <c r="P23" t="n">
-        <v>3343.748752776752</v>
+        <v>3296.525057137382</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567318</v>
+        <v>3544.811418893064</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
         <v>3633.238772859012</v>
@@ -6020,7 +6020,7 @@
         <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932665</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
         <v>3066.592761796891</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714071</v>
+        <v>948.4094928714076</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902801</v>
+        <v>773.9564635902806</v>
       </c>
       <c r="D24" t="n">
-        <v>625.022053929029</v>
+        <v>625.0220539290294</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235734</v>
+        <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504585</v>
+        <v>319.2500409504589</v>
       </c>
       <c r="G24" t="n">
-        <v>182.886940783077</v>
+        <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094446</v>
+        <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130995</v>
+        <v>167.0550243130999</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934466</v>
+        <v>405.3192232934471</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061118</v>
+        <v>772.0173836061125</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6084,22 +6084,22 @@
         <v>2103.778031800938</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.27762327704</v>
+        <v>2414.277623277041</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516155</v>
+        <v>2571.774827516156</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009635</v>
+        <v>2442.336941009636</v>
       </c>
       <c r="T24" t="n">
         <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821906</v>
+        <v>2021.626093821907</v>
       </c>
       <c r="V24" t="n">
         <v>1786.473985590164</v>
@@ -6108,10 +6108,10 @@
         <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.385128656429</v>
+        <v>1324.38512865643</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891475</v>
+        <v>1116.624829891476</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775278</v>
+        <v>575.9874173775271</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574178</v>
+        <v>481.6929346574173</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528791</v>
+        <v>406.2179954528785</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782829</v>
+        <v>332.9466020782825</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881695</v>
+        <v>260.6983547881692</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706854</v>
+        <v>167.6372183706852</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634013</v>
+        <v>96.06173179634</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5003872694179</v>
+        <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
         <v>322.4875702182943</v>
@@ -6154,7 +6154,7 @@
         <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663393</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,31 +6166,31 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478791</v>
+        <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444116</v>
+        <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
-        <v>1738.897251342414</v>
+        <v>1801.92724547874</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.772336119737</v>
+        <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453178</v>
+        <v>1440.341163589504</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455088</v>
+        <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259242</v>
+        <v>982.4929116259232</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357038</v>
+        <v>829.1450609357029</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999706</v>
+        <v>682.9941819999698</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6233,43 +6233,43 @@
         <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>1872.543307058812</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O26" t="n">
         <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q26" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="27">
@@ -6315,13 +6315,13 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
         <v>449.4840331913842</v>
@@ -6373,7 +6373,7 @@
         <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,13 +6382,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6412,22 +6412,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6437,64 +6437,64 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.845421545561</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623798</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285459</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6503,10 +6503,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6516,73 +6516,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965682</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415466</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6649,13 +6649,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>603.845421545561</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623798</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285459</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="33">
@@ -6753,73 +6753,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307338</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,22 +6935,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296685</v>
@@ -6968,19 +6968,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7014,13 +7014,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>444.8926667912272</v>
+        <v>453.7336441225985</v>
       </c>
       <c r="C37" t="n">
-        <v>374.6279184371637</v>
+        <v>383.468895768535</v>
       </c>
       <c r="D37" t="n">
-        <v>323.1827135986715</v>
+        <v>332.0236909300427</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404822</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1744.44964124669</v>
       </c>
       <c r="T37" t="n">
-        <v>1612.513483058688</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.082050758175</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.068997126132</v>
+        <v>978.8956707359729</v>
       </c>
       <c r="W37" t="n">
-        <v>976.6518270891709</v>
+        <v>788.1499352728556</v>
       </c>
       <c r="X37" t="n">
-        <v>748.6622761911535</v>
+        <v>658.8318189486816</v>
       </c>
       <c r="Y37" t="n">
-        <v>626.5411316214669</v>
+        <v>536.7106743789949</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,31 +7157,31 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464974</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7190,7 +7190,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7199,10 +7199,10 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515855</v>
@@ -7214,10 +7214,10 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7263,16 +7263,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.9308303909354</v>
+        <v>543.5641013650705</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630285</v>
+        <v>473.299353011007</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245363</v>
+        <v>421.8541481725146</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159866</v>
+        <v>372.6124891639648</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919198</v>
+        <v>324.3939762398978</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1884.661277114357</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1791.646827515027</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1668.551646658396</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U40" t="n">
-        <v>1478.120214357883</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V40" t="n">
-        <v>1223.435726151996</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.689990688879</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X40" t="n">
-        <v>903.3718743647053</v>
+        <v>847.333710764997</v>
       </c>
       <c r="Y40" t="n">
-        <v>682.5792952211751</v>
+        <v>626.5411316214669</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7403,13 +7403,13 @@
         <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
@@ -7421,34 +7421,34 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
@@ -7482,10 +7482,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228011</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>795.5993767202771</v>
+        <v>500.9308303909355</v>
       </c>
       <c r="C43" t="n">
-        <v>725.3346283662136</v>
+        <v>430.666082036872</v>
       </c>
       <c r="D43" t="n">
-        <v>673.8894235277213</v>
+        <v>379.2208771983798</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>329.9792181898301</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332018</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1026.092857004309</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236858</v>
+        <v>835.3471215411922</v>
       </c>
       <c r="X43" t="n">
-        <v>1044.676579912684</v>
+        <v>706.0290052170184</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.5554353429974</v>
+        <v>583.9078606473317</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7631,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495727</v>
@@ -7646,22 +7646,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296686</v>
@@ -7676,7 +7676,7 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515854</v>
@@ -7691,7 +7691,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.259395817092</v>
+        <v>444.8926667912272</v>
       </c>
       <c r="C46" t="n">
         <v>331.9946474630285</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U46" t="n">
-        <v>1134.908724368016</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304659</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673487</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431749</v>
+        <v>847.333710764997</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734882</v>
+        <v>626.5411316214669</v>
       </c>
     </row>
   </sheetData>
@@ -8459,16 +8459,16 @@
         <v>191.4948909389608</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333072</v>
+        <v>181.0856325333071</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830246</v>
+        <v>179.3553748830245</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383995</v>
+        <v>182.8301554383994</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586589</v>
+        <v>190.8908035586588</v>
       </c>
       <c r="Q8" t="n">
         <v>192.0103836266127</v>
@@ -8538,16 +8538,16 @@
         <v>105.9629718672277</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253597</v>
+        <v>104.1013981253596</v>
       </c>
       <c r="N9" t="n">
-        <v>92.3024655867769</v>
+        <v>92.30246558677689</v>
       </c>
       <c r="O9" t="n">
         <v>106.8829608359739</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798327</v>
+        <v>105.3113487798326</v>
       </c>
       <c r="Q9" t="n">
         <v>120.8212784615459</v>
@@ -8614,7 +8614,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.175525256466</v>
+        <v>116.1755252564659</v>
       </c>
       <c r="M10" t="n">
         <v>119.1996074085229</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>274.0980055054512</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.01571720695276</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,13 +9881,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>287.001785447392</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>287.0017854473912</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>274.8351763665443</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>277.2206841544146</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>8.633094239485217e-13</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>287.0017854473914</v>
       </c>
       <c r="N32" t="n">
-        <v>274.8351763665443</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>346.0086452169933</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579954</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104941</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>97.70919867781208</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717756</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>118.4169624158444</v>
+        <v>131.5707950838538</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292082</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>24.74014286906032</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579955</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>312.5695137670584</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>99.78561433542775</v>
       </c>
       <c r="I16" t="n">
-        <v>16.93035175194216</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292093</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443155</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339012</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,10 +23792,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>167.7369527970453</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>22.41395421925373</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.7596397309468</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245688</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>155.9522295602204</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>-6.130651669665873e-13</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>977619.4925693137</v>
+        <v>977619.492569314</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>977619.4925693141</v>
+        <v>977619.492569314</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348192.4439547414</v>
+        <v>348192.4439547413</v>
       </c>
       <c r="C2" t="n">
-        <v>348192.4439547415</v>
+        <v>348192.4439547413</v>
       </c>
       <c r="D2" t="n">
-        <v>348201.9346675275</v>
+        <v>348201.9346675274</v>
       </c>
       <c r="E2" t="n">
         <v>310054.5003846146</v>
@@ -26326,34 +26326,34 @@
         <v>310054.5003846145</v>
       </c>
       <c r="G2" t="n">
-        <v>337675.5990297787</v>
+        <v>337675.5990297784</v>
       </c>
       <c r="H2" t="n">
-        <v>337675.599029778</v>
+        <v>337675.5990297783</v>
       </c>
       <c r="I2" t="n">
-        <v>348942.7521923208</v>
+        <v>348942.7521923206</v>
       </c>
       <c r="J2" t="n">
+        <v>348942.7521923202</v>
+      </c>
+      <c r="K2" t="n">
         <v>348942.7521923204</v>
-      </c>
-      <c r="K2" t="n">
-        <v>348942.7521923202</v>
       </c>
       <c r="L2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="M2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923208</v>
       </c>
       <c r="N2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="O2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923208</v>
       </c>
       <c r="P2" t="n">
-        <v>348942.7521923208</v>
+        <v>348942.7521923206</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552229</v>
+        <v>59764.55367552233</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163633</v>
@@ -26378,22 +26378,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487393</v>
+        <v>37580.10929487402</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983372</v>
+        <v>22821.46782983369</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179689</v>
+        <v>25409.43302179692</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487402</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,43 +26421,43 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>421637.9387995428</v>
+        <v>421637.9387995427</v>
       </c>
       <c r="E4" t="n">
-        <v>38804.27401362512</v>
+        <v>38804.2740136252</v>
       </c>
       <c r="F4" t="n">
-        <v>38804.27401362509</v>
+        <v>38804.2740136252</v>
       </c>
       <c r="G4" t="n">
-        <v>75832.43437506733</v>
+        <v>75832.43437506739</v>
       </c>
       <c r="H4" t="n">
-        <v>75832.43437506737</v>
+        <v>75832.4343750674</v>
       </c>
       <c r="I4" t="n">
         <v>88045.16093451309</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.15940173091</v>
+        <v>84858.1594017309</v>
       </c>
       <c r="K4" t="n">
         <v>84858.15940173093</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173093</v>
+        <v>84858.15940173094</v>
       </c>
       <c r="M4" t="n">
+        <v>90964.0109881571</v>
+      </c>
+      <c r="N4" t="n">
+        <v>90964.01098815713</v>
+      </c>
+      <c r="O4" t="n">
+        <v>90964.01098815713</v>
+      </c>
+      <c r="P4" t="n">
         <v>90964.01098815716</v>
-      </c>
-      <c r="N4" t="n">
-        <v>90964.01098815718</v>
-      </c>
-      <c r="O4" t="n">
-        <v>90964.01098815716</v>
-      </c>
-      <c r="P4" t="n">
-        <v>90964.01098815713</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>35148.90543186635</v>
       </c>
       <c r="E5" t="n">
+        <v>76569.49036482644</v>
+      </c>
+      <c r="F5" t="n">
         <v>76569.49036482643</v>
-      </c>
-      <c r="F5" t="n">
-        <v>76569.49036482644</v>
       </c>
       <c r="G5" t="n">
         <v>80518.64312521488</v>
@@ -26494,19 +26494,19 @@
         <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127084.4060410791</v>
+        <v>-127088.8196189472</v>
       </c>
       <c r="C6" t="n">
-        <v>-127084.406041079</v>
+        <v>-127088.8196189473</v>
       </c>
       <c r="D6" t="n">
-        <v>-168349.4632394039</v>
+        <v>-168353.8209895498</v>
       </c>
       <c r="E6" t="n">
-        <v>-894558.2361574695</v>
+        <v>-894786.9905798679</v>
       </c>
       <c r="F6" t="n">
-        <v>194680.7360061629</v>
+        <v>194451.9815837647</v>
       </c>
       <c r="G6" t="n">
-        <v>143744.4122346225</v>
+        <v>143678.1348630778</v>
       </c>
       <c r="H6" t="n">
-        <v>181324.5215294959</v>
+        <v>181258.2441579517</v>
       </c>
       <c r="I6" t="n">
-        <v>152339.5951261319</v>
+        <v>152339.5951261317</v>
       </c>
       <c r="J6" t="n">
-        <v>149297.2180939864</v>
+        <v>149297.2180939863</v>
       </c>
       <c r="K6" t="n">
-        <v>174706.6511157832</v>
+        <v>174706.6511157834</v>
       </c>
       <c r="L6" t="n">
         <v>137126.5418209093</v>
       </c>
       <c r="M6" t="n">
-        <v>-26707.95609481102</v>
+        <v>-26707.95609481039</v>
       </c>
       <c r="N6" t="n">
-        <v>175460.1438979132</v>
+        <v>175460.1438979134</v>
       </c>
       <c r="O6" t="n">
-        <v>175460.1438979133</v>
+        <v>175460.1438979138</v>
       </c>
       <c r="P6" t="n">
-        <v>175460.1438979138</v>
+        <v>175460.1438979136</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="O2" t="n">
         <v>97.68472022810502</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790584</v>
+        <v>69.78465283790588</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26799,34 +26799,34 @@
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.22193528103</v>
+        <v>917.2219352810298</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022926</v>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951236</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790584</v>
+        <v>69.78465283790588</v>
       </c>
       <c r="E3" t="n">
         <v>1019.992047755392</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873739</v>
+        <v>85.82047987873716</v>
       </c>
       <c r="J4" t="n">
-        <v>97.1145259275844</v>
+        <v>97.11452592758451</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959707</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987526</v>
+        <v>90.83829126987524</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28032,10 +28032,10 @@
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519092</v>
+        <v>84.4622088851909</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990454</v>
+        <v>7.649035050990445</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317061</v>
+        <v>75.62456067317059</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437878</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="K16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="L16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="M16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="N16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="O16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="P16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="R16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="S16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.9201465871264</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075628</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.49558901075702</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075633</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.49558901075746</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571902</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="S25" t="n">
-        <v>11.49558901075687</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075505</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859273</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>55.47778196371121</v>
+        <v>46.72521440565387</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810502</v>
+        <v>55.47778196371178</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -30426,25 +30426,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.72521440565344</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.14548214544419</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C43" t="n">
         <v>97.68472022810502</v>
@@ -30630,13 +30630,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,19 +30663,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810502</v>
+        <v>46.72521440565308</v>
       </c>
       <c r="W43" t="n">
         <v>97.68472022810502</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810502</v>
+        <v>55.47778196371118</v>
       </c>
       <c r="D46" t="n">
         <v>97.68472022810502</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V46" t="n">
-        <v>46.72521440565339</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413298</v>
+        <v>0.28054131794133</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366644</v>
+        <v>2.873093772366646</v>
       </c>
       <c r="I8" t="n">
         <v>10.81556915993313</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362296</v>
+        <v>23.81059368362298</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207946</v>
+        <v>35.68590767207948</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102644</v>
+        <v>44.27152403102647</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396556</v>
+        <v>49.26060069396559</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356637</v>
+        <v>50.0576887135664</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328727</v>
+        <v>47.2680559832873</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661068</v>
+        <v>40.3421921966107</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.2953062478368</v>
+        <v>30.29530624783682</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313207</v>
+        <v>17.62255356313208</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588059</v>
+        <v>6.392835282588063</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288172</v>
+        <v>1.228069619288173</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530638</v>
+        <v>0.02244330543530639</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796465</v>
+        <v>0.1501028381796466</v>
       </c>
       <c r="H9" t="n">
         <v>1.449677410840271</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693971</v>
+        <v>5.168014384693974</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906915</v>
+        <v>14.18142647906916</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710547</v>
+        <v>24.23831663710548</v>
       </c>
       <c r="L9" t="n">
-        <v>32.5914079126465</v>
+        <v>32.59140791264652</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665867</v>
+        <v>38.0326357966587</v>
       </c>
       <c r="N9" t="n">
-        <v>39.0392464965564</v>
+        <v>39.03924649655642</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847055</v>
+        <v>35.71328360847057</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449759</v>
+        <v>28.66305863449761</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447558</v>
+        <v>19.16049562447559</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767882</v>
+        <v>9.319542882767887</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608784</v>
+        <v>2.788094384608785</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890136</v>
+        <v>0.605019773189014</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345171</v>
+        <v>0.009875186722345176</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,43 +31677,43 @@
         <v>1.118842466811016</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078567</v>
+        <v>3.784387403078569</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481862</v>
+        <v>8.896971231481867</v>
       </c>
       <c r="K10" t="n">
-        <v>14.6204567748924</v>
+        <v>14.62045677489241</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477233</v>
+        <v>18.70915102477234</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908213</v>
+        <v>19.72617653908214</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115524</v>
+        <v>19.25713215115525</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875017</v>
+        <v>17.78707839875018</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287703</v>
+        <v>15.21991838287704</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852378</v>
+        <v>10.53748257852379</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381675</v>
+        <v>5.658276933381678</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233859</v>
+        <v>2.193068516233861</v>
       </c>
       <c r="T10" t="n">
-        <v>0.537685030062553</v>
+        <v>0.5376850300625533</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564515</v>
+        <v>0.00686406421356452</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33035,7 +33035,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.7086478970249</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O36" t="n">
         <v>557.7086478970249</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019263</v>
+        <v>72.49856320019273</v>
       </c>
       <c r="K13" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314461</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097663</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250201</v>
+        <v>105.3143851250202</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019262</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
@@ -35811,16 +35811,16 @@
         <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O16" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3143851250201</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>813.0191213356779</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>268.8100220106722</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,13 +36601,13 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>825.9229012776185</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>795.0547863356102</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193716</v>
@@ -36683,7 +36683,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525805</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36838,22 +36838,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>827.1370117794555</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37075,10 +37075,10 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>825.9229012776179</v>
       </c>
       <c r="N32" t="n">
-        <v>827.1370117794555</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
@@ -37148,7 +37148,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120759</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525805</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687133</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554004</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597746</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
